--- a/metrics/measuremenrs.xlsx
+++ b/metrics/measuremenrs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Using get_time</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Sdev</t>
+  </si>
+  <si>
+    <t>SpeedUPN</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -168,9 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,18 +484,18 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -506,9 +507,9 @@
       <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -557,9 +558,9 @@
       <c r="Q4" s="2">
         <v>4</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -607,9 +608,9 @@
       <c r="Q5">
         <v>0.48225600000000002</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -657,9 +658,9 @@
       <c r="Q6">
         <v>0.48411599999999999</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -707,9 +708,9 @@
       <c r="Q7">
         <v>0.47982200000000003</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -757,9 +758,9 @@
       <c r="Q8">
         <v>0.54108999999999996</v>
       </c>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -807,9 +808,9 @@
       <c r="Q9">
         <v>0.49211199999999999</v>
       </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -869,9 +870,9 @@
         <f>AVERAGE(Q5:Q9)</f>
         <v>0.49587919999999996</v>
       </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -931,9 +932,9 @@
         <f>STDEV(Q5:Q9)</f>
         <v>2.5690496087074667E-2</v>
       </c>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -993,9 +994,9 @@
         <f>AVEDEV(Q5:Q9)</f>
         <v>1.8084319999999966E-2</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1052,740 +1053,625 @@
         <f>N10/Q10</f>
         <v>1.3085457103262248</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <f>B10/C10</f>
+        <v>1.8076727900131939</v>
+      </c>
+      <c r="D14" s="5">
+        <f>C10/D10</f>
+        <v>1.4064389712179801</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D10/E10</f>
+        <v>1.0289338407103279</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>H10/I10</f>
+        <v>1.526634989109741</v>
+      </c>
+      <c r="J14" s="5">
+        <f>I10/J10</f>
+        <v>1.3660720718124575</v>
+      </c>
+      <c r="K14" s="5">
+        <f>J10/K10</f>
+        <v>1.1882244174699106</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f>N10/O10</f>
+        <v>1.1110562044473027</v>
+      </c>
+      <c r="P14" s="5">
+        <f>O10/P10</f>
+        <v>1.1093232160684896</v>
+      </c>
+      <c r="Q14" s="5">
+        <f>P10/Q10</f>
+        <v>1.061682764673332</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E28" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I28" s="2">
         <v>2</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J28" s="2">
         <v>3</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K28" s="2">
         <v>4</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="2" t="s">
+      <c r="L28" s="1"/>
+      <c r="M28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N28" s="2">
         <v>1</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O28" s="2">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P28" s="2">
         <v>3</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q28" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B29">
         <v>3.9505999999999999E-2</v>
       </c>
-      <c r="C19">
+      <c r="C29">
         <v>2.3921000000000001E-2</v>
       </c>
-      <c r="D19">
+      <c r="D29">
         <v>1.8880000000000001E-2</v>
       </c>
-      <c r="E19">
+      <c r="E29">
         <v>1.6847999999999998E-2</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H19">
+      <c r="H29">
         <v>5.8185000000000001E-2</v>
       </c>
-      <c r="I19">
+      <c r="I29">
         <v>3.9463999999999999E-2</v>
       </c>
-      <c r="J19">
+      <c r="J29">
         <v>3.0102E-2</v>
       </c>
-      <c r="K19">
+      <c r="K29">
         <v>2.579E-2</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N19">
+      <c r="N29">
         <v>0.42146800000000001</v>
       </c>
-      <c r="O19">
+      <c r="O29">
         <v>0.37451499999999999</v>
       </c>
-      <c r="P19">
+      <c r="P29">
         <v>0.33977499999999999</v>
       </c>
-      <c r="Q19">
+      <c r="Q29">
         <v>0.32862400000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
+      <c r="B30">
         <v>3.8512999999999999E-2</v>
       </c>
-      <c r="C20">
+      <c r="C30">
         <v>2.3491999999999999E-2</v>
       </c>
-      <c r="D20">
+      <c r="D30">
         <v>1.7323999999999999E-2</v>
       </c>
-      <c r="E20">
+      <c r="E30">
         <v>1.746E-2</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H20">
+      <c r="H30">
         <v>5.7044999999999998E-2</v>
       </c>
-      <c r="I20">
+      <c r="I30">
         <v>3.9615999999999998E-2</v>
       </c>
-      <c r="J20">
+      <c r="J30">
         <v>2.886E-2</v>
       </c>
-      <c r="K20">
+      <c r="K30">
         <v>2.5891000000000001E-2</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N20">
+      <c r="N30">
         <v>0.416964</v>
       </c>
-      <c r="O20">
+      <c r="O30">
         <v>0.30788199999999999</v>
       </c>
-      <c r="P20">
+      <c r="P30">
         <v>0.336534</v>
       </c>
-      <c r="Q20">
+      <c r="Q30">
         <v>0.32154300000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21">
+      <c r="B31">
         <v>4.3110000000000002E-2</v>
       </c>
-      <c r="C21">
+      <c r="C31">
         <v>2.3949999999999999E-2</v>
       </c>
-      <c r="D21">
+      <c r="D31">
         <v>1.8637999999999998E-2</v>
       </c>
-      <c r="E21">
+      <c r="E31">
         <v>1.6851000000000001E-2</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H31">
         <v>5.7360000000000001E-2</v>
       </c>
-      <c r="I21">
+      <c r="I31">
         <v>3.7925E-2</v>
       </c>
-      <c r="J21">
+      <c r="J31">
         <v>3.0408000000000001E-2</v>
       </c>
-      <c r="K21">
+      <c r="K31">
         <v>2.5503999999999999E-2</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N21">
+      <c r="N31">
         <v>0.42068299999999997</v>
       </c>
-      <c r="O21">
+      <c r="O31">
         <v>0.34626299999999999</v>
       </c>
-      <c r="P21">
+      <c r="P31">
         <v>0.350379</v>
       </c>
-      <c r="Q21">
+      <c r="Q31">
         <v>0.32066800000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B32">
         <v>4.2241000000000001E-2</v>
       </c>
-      <c r="C22">
+      <c r="C32">
         <v>2.2203000000000001E-2</v>
       </c>
-      <c r="D22">
+      <c r="D32">
         <v>1.7808999999999998E-2</v>
       </c>
-      <c r="E22">
+      <c r="E32">
         <v>1.7163000000000001E-2</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H22">
+      <c r="H32">
         <v>5.7882000000000003E-2</v>
       </c>
-      <c r="I22">
+      <c r="I32">
         <v>3.9307000000000002E-2</v>
       </c>
-      <c r="J22">
+      <c r="J32">
         <v>3.1378000000000003E-2</v>
       </c>
-      <c r="K22">
+      <c r="K32">
         <v>2.5395999999999998E-2</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N22">
+      <c r="N32">
         <v>0.41566599999999998</v>
       </c>
-      <c r="O22">
+      <c r="O32">
         <v>0.32425500000000002</v>
       </c>
-      <c r="P22">
+      <c r="P32">
         <v>0.34574700000000003</v>
       </c>
-      <c r="Q22">
+      <c r="Q32">
         <v>0.32883200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B33">
         <v>4.1387E-2</v>
       </c>
-      <c r="C23">
+      <c r="C33">
         <v>2.3654999999999999E-2</v>
       </c>
-      <c r="D23">
+      <c r="D33">
         <v>1.8703000000000001E-2</v>
       </c>
-      <c r="E23">
+      <c r="E33">
         <v>1.6642000000000001E-2</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23">
+      <c r="H33">
         <v>5.5525999999999999E-2</v>
       </c>
-      <c r="I23">
+      <c r="I33">
         <v>3.9753999999999998E-2</v>
       </c>
-      <c r="J23">
+      <c r="J33">
         <v>3.1856000000000002E-2</v>
       </c>
-      <c r="K23">
+      <c r="K33">
         <v>2.5482000000000001E-2</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N23">
+      <c r="N33">
         <v>0.45742300000000002</v>
       </c>
-      <c r="O23">
+      <c r="O33">
         <v>0.38101800000000002</v>
       </c>
-      <c r="P23">
+      <c r="P33">
         <v>0.346439</v>
       </c>
-      <c r="Q23">
+      <c r="Q33">
         <v>0.32900200000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4">
-        <f>AVERAGE(B19:B23)</f>
+      <c r="B34" s="4">
+        <f>AVERAGE(B29:B33)</f>
         <v>4.0951400000000006E-2</v>
       </c>
-      <c r="C24" s="4">
-        <f>AVERAGE(C19:C23)</f>
+      <c r="C34" s="4">
+        <f>AVERAGE(C29:C33)</f>
         <v>2.3444199999999998E-2</v>
       </c>
-      <c r="D24" s="4">
-        <f>AVERAGE(D19:D23)</f>
+      <c r="D34" s="4">
+        <f>AVERAGE(D29:D33)</f>
         <v>1.8270799999999997E-2</v>
       </c>
-      <c r="E24" s="4">
-        <f>AVERAGE(E19:E23)</f>
+      <c r="E34" s="4">
+        <f>AVERAGE(E29:E33)</f>
         <v>1.6992799999999999E-2</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="4">
-        <f>AVERAGE(H19:H23)</f>
+      <c r="H34" s="4">
+        <f>AVERAGE(H29:H33)</f>
         <v>5.7199600000000003E-2</v>
       </c>
-      <c r="I24" s="4">
-        <f>AVERAGE(I19:I23)</f>
+      <c r="I34" s="4">
+        <f>AVERAGE(I29:I33)</f>
         <v>3.9213200000000004E-2</v>
       </c>
-      <c r="J24" s="4">
-        <f>AVERAGE(J19:J23)</f>
+      <c r="J34" s="4">
+        <f>AVERAGE(J29:J33)</f>
         <v>3.0520800000000004E-2</v>
       </c>
-      <c r="K24" s="4">
-        <f>AVERAGE(K19:K23)</f>
+      <c r="K34" s="4">
+        <f>AVERAGE(K29:K33)</f>
         <v>2.5612600000000003E-2</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="4">
-        <f>AVERAGE(N19:N23)</f>
+      <c r="N34" s="4">
+        <f>AVERAGE(N29:N33)</f>
         <v>0.42644079999999995</v>
       </c>
-      <c r="O24" s="4">
-        <f>AVERAGE(O19:O23)</f>
+      <c r="O34" s="4">
+        <f>AVERAGE(O29:O33)</f>
         <v>0.3467866</v>
       </c>
-      <c r="P24" s="4">
-        <f>AVERAGE(P19:P23)</f>
+      <c r="P34" s="4">
+        <f>AVERAGE(P29:P33)</f>
         <v>0.34377479999999999</v>
       </c>
-      <c r="Q24" s="4">
-        <f>AVERAGE(Q19:Q23)</f>
+      <c r="Q34" s="4">
+        <f>AVERAGE(Q29:Q33)</f>
         <v>0.32573380000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
